--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.821109333333333</v>
+      </c>
+      <c r="H2">
+        <v>5.463328</v>
+      </c>
+      <c r="I2">
+        <v>0.1939041790390135</v>
+      </c>
+      <c r="J2">
+        <v>0.1939041790390135</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.318558</v>
-      </c>
-      <c r="H2">
-        <v>3.955674</v>
-      </c>
-      <c r="I2">
-        <v>0.127073445927672</v>
-      </c>
-      <c r="J2">
-        <v>0.1270734459276719</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N2">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P2">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q2">
-        <v>0.1302845183833334</v>
+        <v>0.09784334818844444</v>
       </c>
       <c r="R2">
-        <v>1.17256066545</v>
+        <v>0.8805901336959999</v>
       </c>
       <c r="S2">
-        <v>0.01662577852057035</v>
+        <v>0.02079371155193479</v>
       </c>
       <c r="T2">
-        <v>0.01662577852057035</v>
+        <v>0.02079371155193479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.318558</v>
+        <v>1.821109333333333</v>
       </c>
       <c r="H3">
-        <v>3.955674</v>
+        <v>5.463328</v>
       </c>
       <c r="I3">
-        <v>0.127073445927672</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="J3">
-        <v>0.1270734459276719</v>
+        <v>0.1939041790390135</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N3">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O3">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P3">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q3">
-        <v>0.07084260518533333</v>
+        <v>0.814559137415111</v>
       </c>
       <c r="R3">
-        <v>0.637583446668</v>
+        <v>7.331032236735999</v>
       </c>
       <c r="S3">
-        <v>0.00904031789998337</v>
+        <v>0.1731104674870787</v>
       </c>
       <c r="T3">
-        <v>0.00904031789998337</v>
+        <v>0.1731104674870787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4.617188333333334</v>
+      </c>
+      <c r="H4">
+        <v>13.851565</v>
+      </c>
+      <c r="I4">
+        <v>0.4916190899998193</v>
+      </c>
+      <c r="J4">
+        <v>0.4916190899998193</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>1.318558</v>
-      </c>
-      <c r="H4">
-        <v>3.955674</v>
-      </c>
-      <c r="I4">
-        <v>0.127073445927672</v>
-      </c>
-      <c r="J4">
-        <v>0.1270734459276719</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N4">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P4">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q4">
-        <v>0.7946579869760001</v>
+        <v>0.2480692166477778</v>
       </c>
       <c r="R4">
-        <v>7.151921882783999</v>
+        <v>2.23262294983</v>
       </c>
       <c r="S4">
-        <v>0.1014073495071183</v>
+        <v>0.05271977943716277</v>
       </c>
       <c r="T4">
-        <v>0.1014073495071182</v>
+        <v>0.05271977943716277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>13.851565</v>
       </c>
       <c r="I5">
-        <v>0.4449724866207715</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="J5">
-        <v>0.4449724866207714</v>
+        <v>0.4916190899998193</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N5">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P5">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q5">
-        <v>0.4562166839027778</v>
+        <v>2.065209857114445</v>
       </c>
       <c r="R5">
-        <v>4.105950155125</v>
+        <v>18.58688871403</v>
       </c>
       <c r="S5">
-        <v>0.05821841027680343</v>
+        <v>0.4388993105626566</v>
       </c>
       <c r="T5">
-        <v>0.05821841027680342</v>
+        <v>0.4388993105626565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.617188333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H6">
-        <v>13.851565</v>
+        <v>1.328848</v>
       </c>
       <c r="I6">
-        <v>0.4449724866207715</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J6">
-        <v>0.4449724866207714</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,27 +812,27 @@
         <v>0.161182</v>
       </c>
       <c r="O6">
-        <v>0.07114246280162233</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P6">
-        <v>0.07114246280162234</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q6">
-        <v>0.2480692166477778</v>
+        <v>0.02379848648177778</v>
       </c>
       <c r="R6">
-        <v>2.23262294983</v>
+        <v>0.214186378336</v>
       </c>
       <c r="S6">
-        <v>0.03165643857716362</v>
+        <v>0.005057664853430993</v>
       </c>
       <c r="T6">
-        <v>0.03165643857716362</v>
+        <v>0.005057664853430993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.617188333333334</v>
+        <v>0.4429493333333334</v>
       </c>
       <c r="H7">
-        <v>13.851565</v>
+        <v>1.328848</v>
       </c>
       <c r="I7">
-        <v>0.4449724866207715</v>
+        <v>0.04716341038056566</v>
       </c>
       <c r="J7">
-        <v>0.4449724866207714</v>
+        <v>0.04716341038056565</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602672</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N7">
-        <v>1.808016</v>
+        <v>1.341862</v>
       </c>
       <c r="O7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P7">
-        <v>0.7980215596328251</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q7">
-        <v>2.782650127226667</v>
+        <v>0.1981256261084444</v>
       </c>
       <c r="R7">
-        <v>25.04385114504</v>
+        <v>1.783130634976</v>
       </c>
       <c r="S7">
-        <v>0.3550976377668045</v>
+        <v>0.04210574552713467</v>
       </c>
       <c r="T7">
-        <v>0.3550976377668044</v>
+        <v>0.04210574552713466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.270073333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.81022</v>
+      </c>
+      <c r="I8">
+        <v>0.241708006214357</v>
+      </c>
+      <c r="J8">
+        <v>0.241708006214357</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.2083843333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.6251530000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.02008263217394101</v>
-      </c>
-      <c r="J8">
-        <v>0.02008263217394101</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.09880833333333333</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N8">
-        <v>0.296425</v>
+        <v>0.161182</v>
       </c>
       <c r="O8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P8">
-        <v>0.1308359775655526</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q8">
-        <v>0.02059010866944445</v>
+        <v>0.1219649866711111</v>
       </c>
       <c r="R8">
-        <v>0.185310978025</v>
+        <v>1.09768488004</v>
       </c>
       <c r="S8">
-        <v>0.002627530812566991</v>
+        <v>0.02592005281125668</v>
       </c>
       <c r="T8">
-        <v>0.002627530812566991</v>
+        <v>0.02592005281125668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2083843333333334</v>
+        <v>2.270073333333333</v>
       </c>
       <c r="H9">
-        <v>0.6251530000000001</v>
+        <v>6.81022</v>
       </c>
       <c r="I9">
-        <v>0.02008263217394101</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="J9">
-        <v>0.02008263217394101</v>
+        <v>0.241708006214357</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05372733333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N9">
-        <v>0.161182</v>
+        <v>1.341862</v>
       </c>
       <c r="O9">
-        <v>0.07114246280162233</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P9">
-        <v>0.07114246280162234</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q9">
-        <v>0.01119593453844444</v>
+        <v>1.015375047737778</v>
       </c>
       <c r="R9">
-        <v>0.100763410846</v>
+        <v>9.13837542964</v>
       </c>
       <c r="S9">
-        <v>0.001428727912393262</v>
+        <v>0.2157879534031003</v>
       </c>
       <c r="T9">
-        <v>0.001428727912393262</v>
+        <v>0.2157879534031003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,51 +1036,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2083843333333334</v>
+        <v>0.24048</v>
       </c>
       <c r="H10">
-        <v>0.6251530000000001</v>
+        <v>0.72144</v>
       </c>
       <c r="I10">
-        <v>0.02008263217394101</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J10">
-        <v>0.02008263217394101</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.602672</v>
+        <v>0.05372733333333333</v>
       </c>
       <c r="N10">
-        <v>1.808016</v>
+        <v>0.161182</v>
       </c>
       <c r="O10">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="P10">
-        <v>0.7980215596328251</v>
+        <v>0.1072370469527173</v>
       </c>
       <c r="Q10">
-        <v>0.1255874029386667</v>
+        <v>0.01292034912</v>
       </c>
       <c r="R10">
-        <v>1.130286626448</v>
+        <v>0.11628314208</v>
       </c>
       <c r="S10">
-        <v>0.01602637344898076</v>
+        <v>0.002745838298932049</v>
       </c>
       <c r="T10">
-        <v>0.01602637344898076</v>
+        <v>0.002745838298932049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>4.187202333333333</v>
+        <v>0.24048</v>
       </c>
       <c r="H11">
-        <v>12.561607</v>
+        <v>0.72144</v>
       </c>
       <c r="I11">
-        <v>0.4035334276482758</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="J11">
-        <v>0.4035334276482758</v>
+        <v>0.02560531436624451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09880833333333333</v>
+        <v>0.4472873333333333</v>
       </c>
       <c r="N11">
-        <v>0.296425</v>
+        <v>1.341862</v>
       </c>
       <c r="O11">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472828</v>
       </c>
       <c r="P11">
-        <v>0.1308359775655526</v>
+        <v>0.8927629530472827</v>
       </c>
       <c r="Q11">
-        <v>0.4137304838861111</v>
+        <v>0.10756365792</v>
       </c>
       <c r="R11">
-        <v>3.723574354975</v>
+        <v>0.9680729212799999</v>
       </c>
       <c r="S11">
-        <v>0.05279669048674036</v>
+        <v>0.02285947606731246</v>
       </c>
       <c r="T11">
-        <v>0.05279669048674036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4.187202333333333</v>
-      </c>
-      <c r="H12">
-        <v>12.561607</v>
-      </c>
-      <c r="I12">
-        <v>0.4035334276482758</v>
-      </c>
-      <c r="J12">
-        <v>0.4035334276482758</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.05372733333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.161182</v>
-      </c>
-      <c r="O12">
-        <v>0.07114246280162233</v>
-      </c>
-      <c r="P12">
-        <v>0.07114246280162234</v>
-      </c>
-      <c r="Q12">
-        <v>0.2249672154971111</v>
-      </c>
-      <c r="R12">
-        <v>2.024704939474</v>
-      </c>
-      <c r="S12">
-        <v>0.02870836186567861</v>
-      </c>
-      <c r="T12">
-        <v>0.02870836186567862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.187202333333333</v>
-      </c>
-      <c r="H13">
-        <v>12.561607</v>
-      </c>
-      <c r="I13">
-        <v>0.4035334276482758</v>
-      </c>
-      <c r="J13">
-        <v>0.4035334276482758</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.602672</v>
-      </c>
-      <c r="N13">
-        <v>1.808016</v>
-      </c>
-      <c r="O13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P13">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q13">
-        <v>2.523509604634667</v>
-      </c>
-      <c r="R13">
-        <v>22.711586441712</v>
-      </c>
-      <c r="S13">
-        <v>0.3220283752958568</v>
-      </c>
-      <c r="T13">
-        <v>0.3220283752958568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.04501266666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.135038</v>
-      </c>
-      <c r="I14">
-        <v>0.004338007629339771</v>
-      </c>
-      <c r="J14">
-        <v>0.004338007629339771</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.09880833333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.296425</v>
-      </c>
-      <c r="O14">
-        <v>0.1308359775655526</v>
-      </c>
-      <c r="P14">
-        <v>0.1308359775655526</v>
-      </c>
-      <c r="Q14">
-        <v>0.004447626572222222</v>
-      </c>
-      <c r="R14">
-        <v>0.04002863915</v>
-      </c>
-      <c r="S14">
-        <v>0.0005675674688714944</v>
-      </c>
-      <c r="T14">
-        <v>0.0005675674688714944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.04501266666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.135038</v>
-      </c>
-      <c r="I15">
-        <v>0.004338007629339771</v>
-      </c>
-      <c r="J15">
-        <v>0.004338007629339771</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.05372733333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.161182</v>
-      </c>
-      <c r="O15">
-        <v>0.07114246280162233</v>
-      </c>
-      <c r="P15">
-        <v>0.07114246280162234</v>
-      </c>
-      <c r="Q15">
-        <v>0.002418410546222222</v>
-      </c>
-      <c r="R15">
-        <v>0.021765694916</v>
-      </c>
-      <c r="S15">
-        <v>0.0003086165464034585</v>
-      </c>
-      <c r="T15">
-        <v>0.0003086165464034586</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.04501266666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.135038</v>
-      </c>
-      <c r="I16">
-        <v>0.004338007629339771</v>
-      </c>
-      <c r="J16">
-        <v>0.004338007629339771</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.602672</v>
-      </c>
-      <c r="N16">
-        <v>1.808016</v>
-      </c>
-      <c r="O16">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="P16">
-        <v>0.7980215596328251</v>
-      </c>
-      <c r="Q16">
-        <v>0.02712787384533333</v>
-      </c>
-      <c r="R16">
-        <v>0.244150864608</v>
-      </c>
-      <c r="S16">
-        <v>0.003461823614064818</v>
-      </c>
-      <c r="T16">
-        <v>0.003461823614064818</v>
+        <v>0.02285947606731246</v>
       </c>
     </row>
   </sheetData>
